--- a/biology/Botanique/Iriartea_deltoidea/Iriartea_deltoidea.xlsx
+++ b/biology/Botanique/Iriartea_deltoidea/Iriartea_deltoidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Iriartea est un genre de plantes de la famille des Arecaceae (palmiers) natif de l'Amérique centrale et de l'Amérique du Sud. Il contient maintenant une seule espèce Iriartea deltoidea Ruiz &amp; Pav.
 </t>
@@ -511,12 +523,14 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Famille des Arecaceae
 Sous-famille des Arecoideae
 Tribu des Iriarteeae
-Ce genre partage sa tribu avec 4 autres genres :   Iriartella, Dictyocaryum, Socratea, Wettinia [2].
+Ce genre partage sa tribu avec 4 autres genres :   Iriartella, Dictyocaryum, Socratea, Wettinia .
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Presque toutes les espèces autrefois dans le genre Iriartea ont maintenant été déplacées ou sont devenues des synonymes de I. deltoidea.
 Dictyocaryum, Iriartella, Socratea et Wettinia ont été détachés du genre Iriartea, mais sont des parents très proches. Ils forment ensemble avec ce genre la tribu des Iriarteeae.
